--- a/METADATA_SITable_k.xlsx
+++ b/METADATA_SITable_k.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurapodzikowski/Dropbox/ku/Dimensions/aManuscriptPreparations/LitterDecomp-Dim4a-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2495F6-45CF-EA42-A926-C9E1A2CEC8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8083ACD7-31D0-9F4B-891B-87ACD40C3C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="34300" windowHeight="19840" xr2:uid="{1396F8A4-A863-8840-AEF1-EE56C69318D1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="116">
   <si>
     <t>Plot</t>
   </si>
@@ -469,13 +469,131 @@
   <si>
     <t>Complementarity as defined by Lorwau and Hector (2001): CE = S mean(∆RY) mean(M), where S is the number of species, mean(∆RY) is the mean change in realtive yield for all planted species, and mean(M) is the mean monoculture yield for all species in mixture. Compelmentarity is high when the productivity of many species is greater than expectations based on their growth in monoculture.</t>
   </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cadotte, M. W., R. Dinnage, and D. Tilman. 2012. Phylogenetic diversity promotes ecosystem stability. Ecology </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>93</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:S223-S233.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Loreau, M., and A. Hector. 2001. Partitioning selection and complementarity in biodiversity experiments. Nature </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>412</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:72-76.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Martino, C., J. T. Morton, C. A. Marotz, L. R. Thompson, A. Tripathi, R. Knight, and K. Zengler. 2019. A novel sparse compositional technique reveals microbial perturbations. MSystems, 4(1), pp.10-1128. MSystems </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:1-13.</t>
+    </r>
+  </si>
+  <si>
+    <t>Schlesinger, W. H., and E. S. Bernhardt. 2013. Biogeochemistry: an analysis of global change. Academic press.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Singh, J., and S. Gupta. 1977. Plant decomposition and soil respiration in terrestrial ecosystems. The botanical review </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:449-528.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -523,42 +641,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,13 +995,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D343FDB3-F38D-F748-89DB-235F8C0D5EB9}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1523,22 +1644,42 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>112</v>
+      </c>
       <c r="F42" s="11"/>
       <c r="G42" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>113</v>
+      </c>
       <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
